--- a/Symphony/2021/April/Others/Price List -21.04.2021.xlsx
+++ b/Symphony/2021/April/Others/Price List -21.04.2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
   <si>
     <t xml:space="preserve">SL </t>
   </si>
@@ -136,9 +136,6 @@
     <t>Z12_SKD</t>
   </si>
   <si>
-    <t>Z15_SKD</t>
-  </si>
-  <si>
     <t>Z16_SKD</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>5MP+2MP</t>
   </si>
   <si>
-    <t>5MP+2MP+13MP</t>
-  </si>
-  <si>
     <t>5MP+5MP+2MP+13MP</t>
   </si>
   <si>
@@ -367,7 +361,19 @@
     <t>13MP+5MP+2MP+13MP</t>
   </si>
   <si>
-    <t>Last Updated on: 19/04/2021</t>
+    <t>Last Updated on: 22/04/2021</t>
+  </si>
+  <si>
+    <t>6000mAh</t>
+  </si>
+  <si>
+    <t>Z35_SKD</t>
+  </si>
+  <si>
+    <t>6.82"</t>
+  </si>
+  <si>
+    <t>13MP+2MP+2MP+8MP</t>
   </si>
 </sst>
 </file>
@@ -3012,8 +3018,8 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,7 +3039,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -3048,7 +3054,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -3063,7 +3069,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -3096,19 +3102,19 @@
         <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="I4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="K4" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3116,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="12">
         <v>6610.7</v>
@@ -3132,13 +3138,13 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K5" s="11"/>
     </row>
@@ -3157,22 +3163,22 @@
         <v>797</v>
       </c>
       <c r="E6" s="16">
-        <v>820</v>
+        <v>915</v>
       </c>
       <c r="F6" s="16">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="G6" s="17">
         <v>44212</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="K6" s="10"/>
     </row>
@@ -3200,13 +3206,13 @@
         <v>44212</v>
       </c>
       <c r="H7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="K7" s="10"/>
     </row>
@@ -3215,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3227,13 +3233,13 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -3261,13 +3267,13 @@
         <v>44212</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -3295,13 +3301,13 @@
         <v>44212</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="10"/>
     </row>
@@ -3328,13 +3334,13 @@
         <v>44131</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="10"/>
     </row>
@@ -3362,13 +3368,13 @@
         <v>44212</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" s="10"/>
     </row>
@@ -3396,13 +3402,13 @@
         <v>44212</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -3430,13 +3436,13 @@
         <v>44212</v>
       </c>
       <c r="H14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="J14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="10"/>
       <c r="O14" s="8"/>
@@ -3464,13 +3470,13 @@
         <v>44212</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="10"/>
     </row>
@@ -3498,13 +3504,13 @@
         <v>44222</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K16" s="10"/>
     </row>
@@ -3529,13 +3535,13 @@
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17" s="10"/>
     </row>
@@ -3562,13 +3568,13 @@
         <v>44132</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="K18" s="10"/>
     </row>
@@ -3593,13 +3599,13 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="J19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" s="10"/>
     </row>
@@ -3624,13 +3630,13 @@
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="J20" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K20" s="10"/>
     </row>
@@ -3655,13 +3661,13 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="J21" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" s="10"/>
     </row>
@@ -3670,7 +3676,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="15">
         <v>5427.89</v>
@@ -3686,13 +3692,13 @@
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K22" s="10"/>
     </row>
@@ -3717,13 +3723,13 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K23" s="10"/>
     </row>
@@ -3750,13 +3756,13 @@
         <v>43914</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K24" s="10"/>
     </row>
@@ -3783,13 +3789,13 @@
         <v>43849</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K25" s="10"/>
     </row>
@@ -3814,13 +3820,13 @@
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26" s="10"/>
     </row>
@@ -3845,13 +3851,13 @@
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="J27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K27" s="10"/>
     </row>
@@ -3878,13 +3884,13 @@
         <v>44126</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28" s="10"/>
     </row>
@@ -3912,13 +3918,13 @@
         <v>44212</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="10"/>
     </row>
@@ -3946,13 +3952,13 @@
         <v>44212</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="10"/>
     </row>
@@ -3961,7 +3967,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -3973,13 +3979,13 @@
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31" s="10"/>
     </row>
@@ -4007,13 +4013,13 @@
         <v>44212</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K32" s="10"/>
     </row>
@@ -4040,13 +4046,13 @@
         <v>44133</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="10"/>
     </row>
@@ -4071,13 +4077,13 @@
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34" s="10"/>
     </row>
@@ -4086,7 +4092,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -4098,13 +4104,13 @@
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35" s="10"/>
     </row>
@@ -4131,13 +4137,13 @@
         <v>44133</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K36" s="10"/>
     </row>
@@ -4162,13 +4168,13 @@
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="14" t="s">
-        <v>76</v>
-      </c>
       <c r="J37" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37" s="10"/>
     </row>
@@ -4177,7 +4183,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -4189,13 +4195,13 @@
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38" s="10"/>
     </row>
@@ -4220,13 +4226,13 @@
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39" s="10"/>
     </row>
@@ -4251,13 +4257,13 @@
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K40" s="10"/>
     </row>
@@ -4282,13 +4288,13 @@
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K41" s="10"/>
     </row>
@@ -4313,13 +4319,13 @@
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I42" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="J42" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K42" s="10"/>
     </row>
@@ -4344,268 +4350,262 @@
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="15">
-        <v>7692.1824999999999</v>
+        <v>7593.0357000000004</v>
       </c>
       <c r="D44" s="15">
-        <v>7673</v>
+        <v>7575</v>
       </c>
       <c r="E44" s="16">
-        <v>7890</v>
+        <v>7790</v>
       </c>
       <c r="F44" s="16">
-        <v>8490</v>
-      </c>
-      <c r="G44" s="17">
-        <v>43760</v>
-      </c>
+        <v>8290</v>
+      </c>
+      <c r="G44" s="17"/>
       <c r="H44" s="10" t="s">
         <v>80</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="15">
-        <v>7593.0357000000004</v>
-      </c>
-      <c r="D45" s="15">
-        <v>7575</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="16">
+        <v>7250</v>
+      </c>
+      <c r="F45" s="16">
         <v>7790</v>
-      </c>
-      <c r="F45" s="16">
-        <v>8290</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I45" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="J45" s="10" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="C46" s="15">
+        <v>9066.5400000000009</v>
+      </c>
+      <c r="D46" s="15">
+        <v>9045</v>
+      </c>
       <c r="E46" s="16">
-        <v>7250</v>
+        <v>9300</v>
       </c>
       <c r="F46" s="16">
-        <v>7790</v>
+        <v>9790</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I46" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C47" s="15">
-        <v>9066.5400000000009</v>
+        <v>9873.4524000000001</v>
       </c>
       <c r="D47" s="15">
-        <v>9045</v>
+        <v>9850</v>
       </c>
       <c r="E47" s="16">
-        <v>9300</v>
+        <v>10130</v>
       </c>
       <c r="F47" s="16">
-        <v>9790</v>
+        <v>10890</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I47" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="J47" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C48" s="15">
-        <v>9873.4524000000001</v>
+        <v>7603.0595000000003</v>
       </c>
       <c r="D48" s="15">
-        <v>9850</v>
+        <v>7585</v>
       </c>
       <c r="E48" s="16">
-        <v>10130</v>
+        <v>7800</v>
       </c>
       <c r="F48" s="16">
-        <v>10890</v>
-      </c>
-      <c r="G48" s="17"/>
+        <v>8390</v>
+      </c>
+      <c r="G48" s="17">
+        <v>44116</v>
+      </c>
       <c r="H48" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="15">
-        <v>7603.0595000000003</v>
+        <v>7778.4762000000001</v>
       </c>
       <c r="D49" s="15">
-        <v>7585</v>
+        <v>7760</v>
       </c>
       <c r="E49" s="16">
-        <v>7800</v>
+        <v>7980</v>
       </c>
       <c r="F49" s="16">
-        <v>8390</v>
+        <v>8490</v>
       </c>
       <c r="G49" s="17">
-        <v>44116</v>
+        <v>44173</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>80</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="15">
-        <v>7778.4762000000001</v>
-      </c>
-      <c r="D50" s="15">
-        <v>7760</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="16">
         <v>7980</v>
       </c>
       <c r="F50" s="16">
-        <v>8490</v>
-      </c>
-      <c r="G50" s="17">
-        <v>44173</v>
-      </c>
+        <v>8590</v>
+      </c>
+      <c r="G50" s="17"/>
       <c r="H50" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="J50" s="10" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="16">
-        <v>7980</v>
+        <v>9750</v>
       </c>
       <c r="F51" s="16">
-        <v>8590</v>
+        <v>10490</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="10" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -4617,22 +4617,22 @@
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" s="15">
         <v>10133.069</v>
@@ -4648,13 +4648,13 @@
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K53" s="10"/>
     </row>
@@ -4666,14 +4666,14 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="26"/>
       <c r="J54" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K54" s="23"/>
     </row>

--- a/Symphony/2021/April/Others/Price List -21.04.2021.xlsx
+++ b/Symphony/2021/April/Others/Price List -21.04.2021.xlsx
@@ -361,9 +361,6 @@
     <t>13MP+5MP+2MP+13MP</t>
   </si>
   <si>
-    <t>Last Updated on: 22/04/2021</t>
-  </si>
-  <si>
     <t>6000mAh</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>13MP+2MP+2MP+8MP</t>
+  </si>
+  <si>
+    <t>Last Updated on: 24/04/2021</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,6 +676,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3019,7 +3037,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
+      <selection pane="bottomLeft" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,7 +3087,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -3152,20 +3170,20 @@
       <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="22">
         <f>((D6*0.0025)+D6)</f>
         <v>798.99249999999995</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="22">
         <v>797</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="42">
         <v>915</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="42">
         <v>980</v>
       </c>
       <c r="G6" s="17">
@@ -4574,31 +4592,31 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="A51" s="9">
         <v>48</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39">
+        <v>9750</v>
+      </c>
+      <c r="F51" s="39">
+        <v>10490</v>
+      </c>
+      <c r="G51" s="40"/>
+      <c r="H51" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16">
-        <v>9750</v>
-      </c>
-      <c r="F51" s="16">
-        <v>10490</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="10" t="s">
+      <c r="I51" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I51" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K51" s="10"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
